--- a/logfc_Analysis/logfc_218_HC/meta_218flt_r.xlsx
+++ b/logfc_Analysis/logfc_218_HC/meta_218flt_r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_218_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC230D-554D-427C-A492-8832BD26FEEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5D721-3C6D-4BA7-95B4-A5A1DF7DA13E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9576" yWindow="1092" windowWidth="12036" windowHeight="8964" xr2:uid="{164EBEBF-BAC8-4472-BF27-D9FE3E5BA8C6}"/>
+    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{164EBEBF-BAC8-4472-BF27-D9FE3E5BA8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
   <si>
     <t>TAIR</t>
   </si>
@@ -354,6 +354,34 @@
   </si>
   <si>
     <t>3702.AT4G29860.1</t>
+  </si>
+  <si>
+    <t>Subcellular location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encodes an AAA+ ATPase that mediates meiotic chromosome remodeling and crossover maturation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plastid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Vacuole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -717,15 +745,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B393CF-7E12-494B-8FC7-A0637078A70A}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,19 +764,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -759,19 +790,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>839453</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -782,19 +816,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>837238</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -805,19 +842,22 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>841414</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -828,19 +868,22 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>843272</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -851,19 +894,22 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>844410</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -874,19 +920,22 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>817518</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -897,19 +946,22 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>821254</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -920,19 +972,22 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>821018</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -943,19 +998,22 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
         <v>50</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>819713</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -966,19 +1024,22 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>827121</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -989,19 +1050,22 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>827497</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1009,22 +1073,25 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
         <v>65</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>828573</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1035,19 +1102,22 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>829211</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1058,19 +1128,22 @@
         <v>73</v>
       </c>
       <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
         <v>74</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>830434</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
       <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1081,19 +1154,22 @@
         <v>78</v>
       </c>
       <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
         <v>79</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>834082</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>80</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1104,19 +1180,22 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
         <v>85</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>836745</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>86</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -1127,19 +1206,22 @@
         <v>90</v>
       </c>
       <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>822195</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
       <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -1150,19 +1232,22 @@
         <v>94</v>
       </c>
       <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
         <v>95</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>835372</v>
       </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -1173,19 +1258,22 @@
         <v>97</v>
       </c>
       <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
         <v>98</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>836434</v>
       </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -1196,15 +1284,18 @@
         <v>101</v>
       </c>
       <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>829108</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>103</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>15</v>
       </c>
     </row>
